--- a/src/test/data/inputs/group.xlsx
+++ b/src/test/data/inputs/group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>クラス日本語名</t>
     <rPh sb="3" eb="6">
@@ -104,13 +104,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>引数</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ファイルパス</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -174,6 +167,34 @@
     <t>グループ化</t>
     <rPh sb="4" eb="5">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数1</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数2</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数3</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数4</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -244,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -318,30 +339,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="9"/>
       </left>
@@ -360,7 +357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,29 +379,23 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,7 +694,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -712,9 +703,8 @@
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="8" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -722,12 +712,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
+      <c r="C1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
@@ -736,12 +726,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
@@ -750,12 +740,12 @@
         <v>10</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
@@ -783,24 +773,30 @@
         <v>12</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -809,38 +805,38 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -849,16 +845,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -867,7 +863,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
@@ -876,7 +872,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -885,7 +881,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
@@ -894,10 +890,10 @@
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -905,7 +901,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
@@ -914,7 +910,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -922,8 +918,7 @@
       <c r="H12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E5:H5"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A2:B2"/>
